--- a/data/ODI/goodaycategories.xlsx
+++ b/data/ODI/goodaycategories.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyly/Desktop/VU_Master/DataMining/Data-Mining-Techniques/data/ODI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Studie\VU\MSc\Data_Mining_Techniques\Data-Mining-Techniques\data\ODI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B440D2A-5ECA-BC4E-B3E7-1808C2CC5017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{3FA22773-986C-D744-93D0-DD4D31C258B3}"/>
+    <workbookView xWindow="11976" yWindow="5964" windowWidth="27636" windowHeight="16944"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$N$301</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1305,9 +1304,6 @@
     <t>learn</t>
   </si>
   <si>
-    <t>breafast</t>
-  </si>
-  <si>
     <t>tired</t>
   </si>
   <si>
@@ -1462,12 +1458,15 @@
   </si>
   <si>
     <t>Categories:</t>
+  </si>
+  <si>
+    <t>breakfast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1514,12 +1513,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1833,66 +1833,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE3ACC7-BDC0-864C-9ECC-5D16350D848D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="2" width="21.44140625" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>109</v>
@@ -1907,19 +1907,19 @@
         <v>299</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>50</v>
@@ -1936,13 +1936,13 @@
         <v>141</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>186</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>95</v>
@@ -1951,21 +1951,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>408</v>
@@ -1974,79 +1974,79 @@
         <v>140</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>153</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>354</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>31</v>
@@ -2055,100 +2055,100 @@
         <v>194</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>326</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>187</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>423</v>
       </c>
@@ -2156,10 +2156,10 @@
         <v>126</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="H11" s="3" t="s">
         <v>425</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
@@ -2172,7 +2172,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>418</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>412</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>407</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>403</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>401</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>398</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>395</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>354</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>144</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>170</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>391</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>301</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>389</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>387</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>385</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>383</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>380</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>239</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>275</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>376</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>374</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>126</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>368</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>289</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>366</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>224</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>280</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>358</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>356</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>354</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>352</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>351</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>349</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>345</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>345</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>347</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>345</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>343</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>342</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>340</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>338</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>139</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>296</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>335</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>333</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>109</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>330</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>328</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>326</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>324</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>320</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>318</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>316</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>287</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>245</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>313</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>312</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>310</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>207</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>308</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>306</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>179</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>65</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>303</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>301</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>300</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>297</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>147</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>293</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>292</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>83</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>290</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>288</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>18</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>286</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>284</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>18</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>281</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>280</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>54</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>18</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>276</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>54</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>243</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>269</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>271</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>269</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>267</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>263</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>54</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>261</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>260</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>232</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>168</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>257</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>255</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>253</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>251</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>6</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>164</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>248</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>18</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>243</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>54</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>179</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>241</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>141</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>238</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>27</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>235</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>18</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>232</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>230</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>229</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>227</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>226</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>224</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>150</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>222</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>220</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>218</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>89</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>215</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>213</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>211</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>209</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>207</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>202</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>204</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>202</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>200</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>198</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>196</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>13</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>193</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>191</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>71</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>185</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>183</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>181</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>179</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>18</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>149</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>174</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>172</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>169</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>168</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>167</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>141</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>164</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>162</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>160</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>18</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>157</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>80</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>155</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>27</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>152</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>151</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>9</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>148</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>147</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>145</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>143</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>141</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>11</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>138</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>137</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>89</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>136</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>135</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>134</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>132</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>130</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>129</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>127</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>126</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>65</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>123</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>121</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>119</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>8</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>116</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>89</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>113</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>111</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>109</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>108</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>106</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>105</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>103</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>101</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>99</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>71</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>97</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>95</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>93</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>91</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>89</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>74</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>87</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>85</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>83</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>81</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>79</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>3</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>76</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>74</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>72</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>30</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>69</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>67</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>65</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>46</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>63</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>6</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>46</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>3</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>60</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>58</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>50</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>56</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>54</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>52</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>50</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>48</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>46</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>42</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>40</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>6</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>3</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>36</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>34</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>32</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>5</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>30</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>6</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>28</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>26</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>24</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>22</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>20</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>18</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>14</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>11</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>11</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>9</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>7</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>5</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>3</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1</v>
       </c>
@@ -6396,7 +6396,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:N301" xr:uid="{CF1E9976-BD64-A14B-9901-330A257D2FB9}"/>
+  <autoFilter ref="E1:N301"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>